--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/GESCON/5/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/GESCON/5/accreditamento-checklist_V8.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSE 2.0\Accreditamento totale\GESCON5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4ABDA5-E522-44D4-A51E-E5C58DA560C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9908D1A8-146F-4291-B06F-6BE7C1F4E6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="897">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -6412,10 +6412,10 @@
   <dimension ref="A1:W968"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7814,7 +7814,9 @@
       </c>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
+      <c r="M39" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="N39" s="21" t="s">
         <v>93</v>
       </c>
@@ -8132,7 +8134,9 @@
       </c>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
+      <c r="M47" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="N47" s="21" t="s">
         <v>93</v>
       </c>
@@ -8452,13 +8456,25 @@
       </c>
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
+      <c r="M55" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="N55" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
+      <c r="P55" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q55" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="R55" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="S55" s="21" t="s">
+        <v>885</v>
+      </c>
       <c r="T55" s="21"/>
       <c r="U55" s="22" t="s">
         <v>93</v>
@@ -28364,12 +28380,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28631,21 +28650,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28670,18 +28695,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/GESCON/5/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/GESCON/5/accreditamento-checklist_V8.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSE 2.0\Accreditamento totale\GESCON5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9908D1A8-146F-4291-B06F-6BE7C1F4E6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E628E32-9358-455D-892B-FDE4ABD7EDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="898">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4181,6 +4181,9 @@
   </si>
   <si>
     <t>[ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice "S" ]</t>
+  </si>
+  <si>
+    <t>Ricevuto errore di timeout</t>
   </si>
 </sst>
 </file>
@@ -6412,10 +6415,10 @@
   <dimension ref="A1:W968"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomRight" activeCell="O154" sqref="O154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8462,7 +8465,9 @@
       <c r="N55" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O55" s="21"/>
+      <c r="O55" s="21" t="s">
+        <v>897</v>
+      </c>
       <c r="P55" s="21" t="s">
         <v>93</v>
       </c>
@@ -28380,15 +28385,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28650,27 +28652,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28695,9 +28691,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/GESCON/5/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/GESCON/5/accreditamento-checklist_V8.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSE 2.0\Accreditamento totale\GESCON5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E628E32-9358-455D-892B-FDE4ABD7EDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD973F3D-63E1-4E24-ADA6-3121488F901F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4054,15 +4054,6 @@
     <t>aa102e6327d8bbb2</t>
   </si>
   <si>
-    <t>2024-07-13T08:22:03Z</t>
-  </si>
-  <si>
-    <t>a570e3bcfe0c1bad</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1774015c5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>82564c26ab396bc8</t>
   </si>
   <si>
@@ -4138,15 +4129,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4de9ccd40c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-07-13T08:22:08Z</t>
-  </si>
-  <si>
-    <t>ba3a5761722a4999</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f8f29d11e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Gli errori saranno gestiti tramite un pannello di controllo centralizzato e polimorfico che sarà in grado di riconoscere gli errori, su cui potranno agire gli operatori autorizzati ed effettuare le opportune correzioni, se necessario, reinviando il referto al FSE.</t>
   </si>
   <si>
@@ -4184,6 +4166,24 @@
   </si>
   <si>
     <t>Ricevuto errore di timeout</t>
+  </si>
+  <si>
+    <t>2024-07-17T18:45:57Z</t>
+  </si>
+  <si>
+    <t>998730e1fe0f8875</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.362d30c773^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-07-17T18:47:25Z</t>
+  </si>
+  <si>
+    <t>e7df50a921590bc6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.21fcfd7e34^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -6415,10 +6415,10 @@
   <dimension ref="A1:W968"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O154" sqref="O154"/>
+      <selection pane="bottomRight" activeCell="I377" sqref="I377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7836,7 +7836,7 @@
         <v>93</v>
       </c>
       <c r="S39" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T39" s="21"/>
       <c r="U39" s="22"/>
@@ -8156,7 +8156,7 @@
         <v>93</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T47" s="21"/>
       <c r="U47" s="22"/>
@@ -8466,7 +8466,7 @@
         <v>93</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="P55" s="21" t="s">
         <v>93</v>
@@ -8478,7 +8478,7 @@
         <v>93</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T55" s="21"/>
       <c r="U55" s="22" t="s">
@@ -12121,7 +12121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="31">
         <v>147</v>
       </c>
@@ -12138,16 +12138,16 @@
         <v>818</v>
       </c>
       <c r="F154" s="19">
-        <v>45486</v>
+        <v>45490</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>854</v>
+        <v>892</v>
       </c>
       <c r="H154" s="20" t="s">
-        <v>855</v>
+        <v>893</v>
       </c>
       <c r="I154" s="20" t="s">
-        <v>856</v>
+        <v>894</v>
       </c>
       <c r="J154" s="21" t="s">
         <v>93</v>
@@ -12167,7 +12167,7 @@
         <v>93</v>
       </c>
       <c r="S154" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T154" s="21"/>
       <c r="U154" s="22"/>
@@ -12328,10 +12328,10 @@
         <v>850</v>
       </c>
       <c r="H158" s="20" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="I158" s="20" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J158" s="21" t="s">
         <v>93</v>
@@ -12345,7 +12345,7 @@
         <v>93</v>
       </c>
       <c r="O158" s="21" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="P158" s="21" t="s">
         <v>93</v>
@@ -12357,7 +12357,7 @@
         <v>93</v>
       </c>
       <c r="S158" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T158" s="21"/>
       <c r="U158" s="22"/>
@@ -12430,10 +12430,10 @@
         <v>850</v>
       </c>
       <c r="H160" s="20" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I160" s="20" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J160" s="21" t="s">
         <v>93</v>
@@ -12447,7 +12447,7 @@
         <v>93</v>
       </c>
       <c r="O160" s="21" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="P160" s="21" t="s">
         <v>93</v>
@@ -12459,7 +12459,7 @@
         <v>93</v>
       </c>
       <c r="S160" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T160" s="21"/>
       <c r="U160" s="22"/>
@@ -12488,13 +12488,13 @@
         <v>45486</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="I161" s="20" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="J161" s="21" t="s">
         <v>93</v>
@@ -12508,7 +12508,7 @@
         <v>93</v>
       </c>
       <c r="O161" s="21" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="P161" s="21" t="s">
         <v>93</v>
@@ -12520,7 +12520,7 @@
         <v>93</v>
       </c>
       <c r="S161" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T161" s="21"/>
       <c r="U161" s="22"/>
@@ -12549,13 +12549,13 @@
         <v>45486</v>
       </c>
       <c r="G162" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="H162" s="20" t="s">
         <v>861</v>
       </c>
-      <c r="H162" s="20" t="s">
-        <v>864</v>
-      </c>
       <c r="I162" s="20" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="J162" s="21" t="s">
         <v>93</v>
@@ -12569,7 +12569,7 @@
         <v>93</v>
       </c>
       <c r="O162" s="21" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="P162" s="21" t="s">
         <v>93</v>
@@ -12581,7 +12581,7 @@
         <v>93</v>
       </c>
       <c r="S162" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T162" s="21"/>
       <c r="U162" s="22"/>
@@ -12610,13 +12610,13 @@
         <v>45486</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="H163" s="20" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I163" s="20" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="J163" s="21" t="s">
         <v>93</v>
@@ -12630,7 +12630,7 @@
         <v>93</v>
       </c>
       <c r="O163" s="21" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="P163" s="21" t="s">
         <v>93</v>
@@ -12642,7 +12642,7 @@
         <v>93</v>
       </c>
       <c r="S163" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T163" s="21"/>
       <c r="U163" s="22"/>
@@ -12757,13 +12757,13 @@
         <v>45486</v>
       </c>
       <c r="G166" s="20" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="H166" s="20" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="I166" s="20" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="J166" s="21" t="s">
         <v>93</v>
@@ -12777,7 +12777,7 @@
         <v>93</v>
       </c>
       <c r="O166" s="21" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="P166" s="21" t="s">
         <v>93</v>
@@ -12789,7 +12789,7 @@
         <v>93</v>
       </c>
       <c r="S166" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T166" s="21"/>
       <c r="U166" s="22"/>
@@ -12818,13 +12818,13 @@
         <v>45486</v>
       </c>
       <c r="G167" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="H167" s="20" t="s">
         <v>868</v>
       </c>
-      <c r="H167" s="20" t="s">
-        <v>871</v>
-      </c>
       <c r="I167" s="20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="J167" s="21" t="s">
         <v>93</v>
@@ -12838,7 +12838,7 @@
         <v>93</v>
       </c>
       <c r="O167" s="22" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="P167" s="21" t="s">
         <v>93</v>
@@ -12850,7 +12850,7 @@
         <v>93</v>
       </c>
       <c r="S167" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T167" s="21"/>
       <c r="U167" s="22"/>
@@ -12879,13 +12879,13 @@
         <v>45486</v>
       </c>
       <c r="G168" s="20" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="H168" s="20" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I168" s="20" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J168" s="21" t="s">
         <v>93</v>
@@ -12899,7 +12899,7 @@
         <v>93</v>
       </c>
       <c r="O168" s="21" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="P168" s="21" t="s">
         <v>93</v>
@@ -12911,7 +12911,7 @@
         <v>93</v>
       </c>
       <c r="S168" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T168" s="21"/>
       <c r="U168" s="22"/>
@@ -12940,13 +12940,13 @@
         <v>45486</v>
       </c>
       <c r="G169" s="20" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="H169" s="20" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="I169" s="20" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J169" s="21" t="s">
         <v>93</v>
@@ -12960,7 +12960,7 @@
         <v>93</v>
       </c>
       <c r="O169" s="21" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="P169" s="21" t="s">
         <v>93</v>
@@ -12972,7 +12972,7 @@
         <v>93</v>
       </c>
       <c r="S169" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T169" s="21"/>
       <c r="U169" s="22"/>
@@ -13001,13 +13001,13 @@
         <v>45486</v>
       </c>
       <c r="G170" s="20" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="H170" s="20" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I170" s="20" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="J170" s="21" t="s">
         <v>93</v>
@@ -13021,7 +13021,7 @@
         <v>93</v>
       </c>
       <c r="O170" s="21" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="P170" s="21" t="s">
         <v>93</v>
@@ -13033,7 +13033,7 @@
         <v>93</v>
       </c>
       <c r="S170" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T170" s="21"/>
       <c r="U170" s="22"/>
@@ -13277,13 +13277,13 @@
         <v>45486</v>
       </c>
       <c r="G176" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="H176" s="20" t="s">
         <v>877</v>
       </c>
-      <c r="H176" s="20" t="s">
-        <v>880</v>
-      </c>
       <c r="I176" s="20" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J176" s="21" t="s">
         <v>93</v>
@@ -13297,7 +13297,7 @@
         <v>93</v>
       </c>
       <c r="O176" s="21" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="P176" s="21" t="s">
         <v>93</v>
@@ -13309,7 +13309,7 @@
         <v>93</v>
       </c>
       <c r="S176" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T176" s="21"/>
       <c r="U176" s="22"/>
@@ -20735,16 +20735,16 @@
         <v>829</v>
       </c>
       <c r="F377" s="19">
-        <v>45486</v>
+        <v>45490</v>
       </c>
       <c r="G377" s="20" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="H377" s="20" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="I377" s="20" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
       <c r="J377" s="21" t="s">
         <v>93</v>
@@ -28385,12 +28385,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28652,21 +28655,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28691,18 +28700,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/GESCON/5/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/GESCON/5/accreditamento-checklist_V8.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSE 2.0\Accreditamento totale\GESCON5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD973F3D-63E1-4E24-ADA6-3121488F901F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FD0C99-6B8D-492A-A571-27E01B15B69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4168,22 +4168,22 @@
     <t>Ricevuto errore di timeout</t>
   </si>
   <si>
-    <t>2024-07-17T18:45:57Z</t>
-  </si>
-  <si>
-    <t>998730e1fe0f8875</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.362d30c773^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-17T18:47:25Z</t>
-  </si>
-  <si>
-    <t>e7df50a921590bc6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.21fcfd7e34^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-07-19T18:20:12Z</t>
+  </si>
+  <si>
+    <t>f752b3110ed26a45</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d06b04b8cd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-07-19T18:22:25Z</t>
+  </si>
+  <si>
+    <t>7e588ec3f53a5f94</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.06107ecea2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4720,7 +4720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4937,6 +4937,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
@@ -6415,7 +6443,7 @@
   <dimension ref="A1:W968"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="I377" sqref="I377"/>
@@ -12121,58 +12149,58 @@
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="31">
+    <row r="154" spans="1:23" s="91" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="82">
         <v>147</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D154" s="17" t="s">
+      <c r="D154" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="E154" s="18" t="s">
+      <c r="E154" s="84" t="s">
         <v>818</v>
       </c>
-      <c r="F154" s="19">
-        <v>45490</v>
-      </c>
-      <c r="G154" s="20" t="s">
+      <c r="F154" s="85">
+        <v>45492</v>
+      </c>
+      <c r="G154" s="86" t="s">
         <v>892</v>
       </c>
-      <c r="H154" s="20" t="s">
+      <c r="H154" s="86" t="s">
         <v>893</v>
       </c>
-      <c r="I154" s="20" t="s">
+      <c r="I154" s="86" t="s">
         <v>894</v>
       </c>
-      <c r="J154" s="21" t="s">
+      <c r="J154" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="K154" s="21"/>
-      <c r="L154" s="21"/>
-      <c r="M154" s="21"/>
-      <c r="N154" s="21"/>
-      <c r="O154" s="21"/>
-      <c r="P154" s="21" t="s">
+      <c r="K154" s="87"/>
+      <c r="L154" s="87"/>
+      <c r="M154" s="87"/>
+      <c r="N154" s="87"/>
+      <c r="O154" s="87"/>
+      <c r="P154" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="Q154" s="21" t="s">
+      <c r="Q154" s="87" t="s">
         <v>780</v>
       </c>
-      <c r="R154" s="21" t="s">
+      <c r="R154" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="S154" s="21" t="s">
+      <c r="S154" s="87" t="s">
         <v>879</v>
       </c>
-      <c r="T154" s="21"/>
-      <c r="U154" s="22"/>
-      <c r="V154" s="23"/>
-      <c r="W154" s="24" t="s">
+      <c r="T154" s="87"/>
+      <c r="U154" s="88"/>
+      <c r="V154" s="89"/>
+      <c r="W154" s="90" t="s">
         <v>41</v>
       </c>
     </row>
@@ -20735,7 +20763,7 @@
         <v>829</v>
       </c>
       <c r="F377" s="19">
-        <v>45490</v>
+        <v>45492</v>
       </c>
       <c r="G377" s="20" t="s">
         <v>895</v>
@@ -28385,15 +28413,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28655,27 +28680,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28700,9 +28719,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>